--- a/biology/Botanique/Liste_des_noms_de_familles_de_plantes_avec_étymologies/Liste_des_noms_de_familles_de_plantes_avec_étymologies.xlsx
+++ b/biology/Botanique/Liste_des_noms_de_familles_de_plantes_avec_étymologies/Liste_des_noms_de_familles_de_plantes_avec_étymologies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_noms_de_familles_de_plantes_avec_%C3%A9tymologies</t>
+          <t>Liste_des_noms_de_familles_de_plantes_avec_étymologies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la première édition de Species plantarum de Carl von Linné en 1753, les plantes se sont vu attribuer une épithète ou un nom pour leur espèce et un nom pour leur genre, un groupe d'espèces apparentées[1]. En rapport  sont à leur tour regroupés en familles[2]. Le nom formel de chaque famille se termine par le suffixe latin - aceae et est dérivé du nom d'un genre qui fait ou faisait autrefois partie de la famille[3].
-Le tableau en dessous contient les familles à la graine de Plants of the World par Maarten J. M. Christenhusz (l'auteur principal), Michael F. Fay and Mark W. Chase, avec deux familles actualisées [note 1] de Plants of the World Online. La deuxième colonne donne le genre typique de la famille où vient le nom de famille. La quatrième colonne donne la définition, dérivation ou personne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la première édition de Species plantarum de Carl von Linné en 1753, les plantes se sont vu attribuer une épithète ou un nom pour leur espèce et un nom pour leur genre, un groupe d'espèces apparentées. En rapport  sont à leur tour regroupés en familles. Le nom formel de chaque famille se termine par le suffixe latin - aceae et est dérivé du nom d'un genre qui fait ou faisait autrefois partie de la famille.
+Le tableau en dessous contient les familles à la graine de Plants of the World par Maarten J. M. Christenhusz (l'auteur principal), Michael F. Fay and Mark W. Chase, avec deux familles actualisées [note 1] de Plants of the World Online. La deuxième colonne donne le genre typique de la famille où vient le nom de famille. La quatrième colonne donne la définition, dérivation ou personne.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_noms_de_familles_de_plantes_avec_%C3%A9tymologies</t>
+          <t>Liste_des_noms_de_familles_de_plantes_avec_étymologies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Clé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">LG : dérivé d'un mot grec (G), d'un mot latin (L), d'une autre langue (–), ou d'un nom personnel (P)
-Ba : répertorié dans The Gardener's Botanical de Ross Bayton[4]
-Bu : répertorié dans l'Index des noms de plantes éponymes de Lotte Burkhardt[5]
-CS : répertorié à la fois dans The A to Z of Plant Names d'Allen Coombes et dans le Stearn's Dictionary of Plant Names for Gardeners de William Thomas Stearn[6]
-Gl : répertorié dans The Names of Plants de David Gledhill[7]
-Qu : répertorié dans le dictionnaire mondial des noms de plantes du CRC en quatre volumes d'Umberto Quattrocchi[8],[9],[10],[11]
-St : répertorié dans le dictionnaire Stearn des noms de plantes pour les jardiniers[12]
+Ba : répertorié dans The Gardener's Botanical de Ross Bayton
+Bu : répertorié dans l'Index des noms de plantes éponymes de Lotte Burkhardt
+CS : répertorié à la fois dans The A to Z of Plant Names d'Allen Coombes et dans le Stearn's Dictionary of Plant Names for Gardeners de William Thomas Stearn
+Gl : répertorié dans The Names of Plants de David Gledhill
+Qu : répertorié dans le dictionnaire mondial des noms de plantes du CRC en quatre volumes d'Umberto Quattrocchi
+St : répertorié dans le dictionnaire Stearn des noms de plantes pour les jardiniers
 Les citations numériques liées dans la dernière colonne font référence à Plants of the World.
 			 Acanthe ← [note 2]
 			 Actinidies ←
